--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N2">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q2">
-        <v>504.0632088058417</v>
+        <v>627.6165424745687</v>
       </c>
       <c r="R2">
-        <v>504.0632088058417</v>
+        <v>5648.54888227112</v>
       </c>
       <c r="S2">
-        <v>0.018558259499612</v>
+        <v>0.02125104069200897</v>
       </c>
       <c r="T2">
-        <v>0.018558259499612</v>
+        <v>0.02125104069200897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N3">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q3">
-        <v>571.56539349235</v>
+        <v>667.9444201551802</v>
       </c>
       <c r="R3">
-        <v>571.56539349235</v>
+        <v>6011.499781396622</v>
       </c>
       <c r="S3">
-        <v>0.02104350944112377</v>
+        <v>0.02261653906818945</v>
       </c>
       <c r="T3">
-        <v>0.02104350944112377</v>
+        <v>0.02261653906818945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N4">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q4">
-        <v>136.7442699809139</v>
+        <v>187.0237940949307</v>
       </c>
       <c r="R4">
-        <v>136.7442699809139</v>
+        <v>1683.214146854376</v>
       </c>
       <c r="S4">
-        <v>0.005034558370968719</v>
+        <v>0.006332609148597009</v>
       </c>
       <c r="T4">
-        <v>0.005034558370968719</v>
+        <v>0.006332609148597009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N5">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q5">
-        <v>10081.82025854368</v>
+        <v>11060.31390028286</v>
       </c>
       <c r="R5">
-        <v>10081.82025854368</v>
+        <v>99542.82510254573</v>
       </c>
       <c r="S5">
-        <v>0.3711856634602503</v>
+        <v>0.3745012517270088</v>
       </c>
       <c r="T5">
-        <v>0.3711856634602503</v>
+        <v>0.3745012517270089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N6">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q6">
-        <v>11431.93842066992</v>
+        <v>11771.00100919992</v>
       </c>
       <c r="R6">
-        <v>11431.93842066992</v>
+        <v>105939.0090827993</v>
       </c>
       <c r="S6">
-        <v>0.420893404017703</v>
+        <v>0.3985650544612949</v>
       </c>
       <c r="T6">
-        <v>0.420893404017703</v>
+        <v>0.3985650544612949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N7">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q7">
-        <v>2735.036255868409</v>
+        <v>3295.868941497217</v>
       </c>
       <c r="R7">
-        <v>2735.036255868409</v>
+        <v>29662.82047347496</v>
       </c>
       <c r="S7">
-        <v>0.1006967215431195</v>
+        <v>0.1115978312412375</v>
       </c>
       <c r="T7">
-        <v>0.1006967215431195</v>
+        <v>0.1115978312412375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N8">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q8">
-        <v>706.7841682708154</v>
+        <v>814.3440728790265</v>
       </c>
       <c r="R8">
-        <v>706.7841682708154</v>
+        <v>7329.096655911238</v>
       </c>
       <c r="S8">
-        <v>0.02602190315786287</v>
+        <v>0.02757361837821497</v>
       </c>
       <c r="T8">
-        <v>0.02602190315786287</v>
+        <v>0.02757361837821497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N9">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q9">
-        <v>801.4339554932226</v>
+        <v>866.6702401140575</v>
       </c>
       <c r="R9">
-        <v>801.4339554932226</v>
+        <v>7800.032161026518</v>
       </c>
       <c r="S9">
-        <v>0.02950665523294059</v>
+        <v>0.02934537777892193</v>
       </c>
       <c r="T9">
-        <v>0.02950665523294059</v>
+        <v>0.02934537777892193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N10">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q10">
-        <v>191.7392172962336</v>
+        <v>242.666832215828</v>
       </c>
       <c r="R10">
-        <v>191.7392172962336</v>
+        <v>2184.001489942452</v>
       </c>
       <c r="S10">
-        <v>0.0070593252764191</v>
+        <v>0.008216677504526471</v>
       </c>
       <c r="T10">
-        <v>0.0070593252764191</v>
+        <v>0.008216677504526471</v>
       </c>
     </row>
   </sheetData>
